--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1364.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1364.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.197951838682539</v>
+        <v>1.049036860466003</v>
       </c>
       <c r="B1">
-        <v>2.589771434054195</v>
+        <v>2.809235334396362</v>
       </c>
       <c r="C1">
-        <v>3.793049787573952</v>
+        <v>8.820466995239258</v>
       </c>
       <c r="D1">
-        <v>2.839553397978522</v>
+        <v>2.035429239273071</v>
       </c>
       <c r="E1">
-        <v>1.138599874047603</v>
+        <v>1.139391183853149</v>
       </c>
     </row>
   </sheetData>
